--- a/Master-QualitativeManagerRecord.xlsx
+++ b/Master-QualitativeManagerRecord.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27720"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://atchisonau.sharepoint.com/sites/Atchison/Shared Documents/Atchison/CLIENTS/ATCHISON MODEL PORTFOLIOS/Monthly Returns - Atchison SMA Managers - Descriptions of Managers/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fa1b30dd86628461/FILE Backup/Kev/PYTHON Projects/JNB-AttributionModel/dataIn/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="209" documentId="8_{E16861B0-FF9C-4F3A-A520-7789E53B6DC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E05A42DD-E417-4A62-9D75-01652FC14AF6}"/>
+  <xr:revisionPtr revIDLastSave="210" documentId="8_{E16861B0-FF9C-4F3A-A520-7789E53B6DC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2592283E-E99D-4238-84D1-22F98A3B89BF}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E7C0D57B-1266-42E8-A8C2-F91239E041E7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E7C0D57B-1266-42E8-A8C2-F91239E041E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Qualitative Database" sheetId="2" r:id="rId1"/>
@@ -49,9 +49,6 @@
     <t>Input By</t>
   </si>
   <si>
-    <t>Input Date</t>
-  </si>
-  <si>
     <t>Code</t>
   </si>
   <si>
@@ -661,12 +658,15 @@
   <si>
     <t>Blackrock ETF seeks to provide a cash return of the S&amp;P/ASX Bank Bill Index after an investment management fee of 0.07 per cent pa. This ETF is a core investment within the cash asset class, by providing low-cost exposure to cash, capital preservation and regular income.</t>
   </si>
+  <si>
+    <t>Date</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -824,7 +824,7 @@
   <autoFilter ref="A1:L52" xr:uid="{8E2E3B5B-BB45-477D-A808-D1330CD9137C}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{7161BF6F-388F-4614-BC3E-CCAFDABBB8FA}" name="Input By" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{06E07337-5B81-482F-9B87-BE700D0C7DF9}" name="Input Date" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{06E07337-5B81-482F-9B87-BE700D0C7DF9}" name="Date" dataDxfId="7"/>
     <tableColumn id="3" xr3:uid="{26A60288-9D58-4338-AC67-17C6F91E26B6}" name="Code"/>
     <tableColumn id="4" xr3:uid="{8EC73F92-67B8-4999-951B-496FFCA19DD1}" name="Name"/>
     <tableColumn id="5" xr3:uid="{5E91BA82-B097-4B8B-85D6-FD6A6EB85C4D}" name="Asset Class"/>
@@ -1161,12 +1161,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="J17" sqref="J17"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" style="6" customWidth="1"/>
     <col min="2" max="2" width="12.5703125" style="6" customWidth="1"/>
@@ -1179,987 +1179,987 @@
     <col min="12" max="12" width="30.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="7">
+        <v>45412</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="7">
-        <v>45412</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="G2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="L2" s="4"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="7">
+        <v>45412</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="4"/>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="7">
-        <v>45412</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="8" t="s">
+      <c r="L3" s="4"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="7">
+        <v>45412</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="4"/>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="7">
-        <v>45412</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="8" t="s">
+      <c r="L4" s="4"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="7">
+        <v>45412</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="4"/>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="7">
-        <v>45412</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="8" t="s">
+      <c r="L5" s="4"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="7">
+        <v>45412</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="L5" s="4"/>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="7">
-        <v>45412</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="8" t="s">
+      <c r="L6" s="4"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="7">
+        <v>45412</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L6" s="4"/>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="7">
-        <v>45412</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="8" t="s">
+      <c r="L7" s="4"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="7">
+        <v>45412</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="L7" s="4"/>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="7">
-        <v>45412</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="8" t="s">
+      <c r="L8" s="4"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="7">
+        <v>45412</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L8" s="4"/>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="7">
-        <v>45412</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="L9" s="4"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="7">
+        <v>45412</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="L9" s="4"/>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="7">
-        <v>45412</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" s="8" t="s">
+      <c r="L10" s="4"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="7">
+        <v>45412</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="L10" s="4"/>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="7">
-        <v>45412</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" s="8" t="s">
+      <c r="L11" s="4"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="7">
+        <v>45412</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="L11" s="4"/>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="7">
-        <v>45412</v>
-      </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F12" s="8" t="s">
+      <c r="L12" s="4"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="7">
+        <v>45412</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="L12" s="4"/>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="7">
-        <v>45412</v>
-      </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F13" s="8" t="s">
+      <c r="L13" s="4"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="7">
+        <v>45412</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="L13" s="4"/>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="7">
-        <v>45412</v>
-      </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F14" s="8" t="s">
+      <c r="L14" s="4"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="7">
+        <v>45412</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="L14" s="4"/>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="7">
-        <v>45412</v>
-      </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F15" s="8" t="s">
+      <c r="L15" s="4"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="7">
+        <v>45412</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="L15" s="4"/>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="7">
-        <v>45412</v>
-      </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F16" s="8" t="s">
+      <c r="L16" s="4"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="7">
+        <v>45412</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="L16" s="4"/>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="7">
-        <v>45412</v>
-      </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F17" s="8" t="s">
+      <c r="L17" s="4"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="7">
+        <v>45412</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="L17" s="4"/>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="7">
-        <v>45412</v>
-      </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="F18" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="L18" s="4"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="7">
+        <v>45412</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="L18" s="4"/>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="7">
-        <v>45412</v>
-      </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F19" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F19" s="8" t="s">
+      <c r="L19" s="4"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="7">
+        <v>45412</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="L19" s="4"/>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" s="7">
-        <v>45412</v>
-      </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="E20" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F20" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F20" s="8" t="s">
+      <c r="L20" s="4"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="7">
+        <v>45412</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="L20" s="4"/>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" s="7">
-        <v>45412</v>
-      </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="E21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F21" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F21" s="8" t="s">
+      <c r="L21" s="4"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="7">
+        <v>45412</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="L21" s="4"/>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22" s="7">
-        <v>45412</v>
-      </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="E22" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F22" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F22" s="8" t="s">
+      <c r="L22" s="4"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="7">
+        <v>45412</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="L22" s="4"/>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B23" s="7">
-        <v>45412</v>
-      </c>
-      <c r="C23" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="F23" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="F23" s="8" t="s">
+      <c r="L23" s="4"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="7">
+        <v>45412</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="L23" s="4"/>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B24" s="7">
-        <v>45412</v>
-      </c>
-      <c r="C24" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="E24" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F24" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F24" s="8" t="s">
+      <c r="L24" s="4"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" s="7">
+        <v>45412</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="L24" s="4"/>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B25" s="7">
-        <v>45412</v>
-      </c>
-      <c r="C25" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="E25" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F25" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F25" s="8" t="s">
+      <c r="L25" s="4"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" s="7">
+        <v>45412</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="L25" s="4"/>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B26" s="7">
-        <v>45412</v>
-      </c>
-      <c r="C26" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="E26" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F26" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F26" s="8" t="s">
+      <c r="L26" s="4"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="7">
+        <v>45412</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="L26" s="4"/>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B27" s="7">
-        <v>45412</v>
-      </c>
-      <c r="C27" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="E27" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F27" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F27" s="8" t="s">
+      <c r="L27" s="4"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="7">
+        <v>45412</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="L27" s="4"/>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="A28" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B28" s="7">
-        <v>45412</v>
-      </c>
-      <c r="C28" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="E28" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F28" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F28" s="8" t="s">
+      <c r="L28" s="4"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" s="7">
+        <v>45412</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="L28" s="4"/>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="A29" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B29" s="7">
-        <v>45412</v>
-      </c>
-      <c r="C29" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="E29" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F29" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F29" s="8" t="s">
+      <c r="L29" s="4"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" s="7">
+        <v>45412</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="L29" s="4"/>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="A30" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B30" s="7">
-        <v>45412</v>
-      </c>
-      <c r="C30" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="E30" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F30" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F30" s="8" t="s">
+      <c r="L30" s="4"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="L30" s="4"/>
-    </row>
-    <row r="31" spans="1:12">
-      <c r="A31" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>105</v>
-      </c>
       <c r="C31" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="E31" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F31" s="8"/>
       <c r="G31" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="H31" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="H31" s="4" t="s">
+      <c r="I31" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="I31" s="4" t="s">
+      <c r="J31" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="J31" s="4" t="s">
+      <c r="K31" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="K31" s="4" t="s">
+      <c r="L31" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="L31" s="4" t="s">
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" s="7">
+        <v>45412</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="32" spans="1:12">
-      <c r="A32" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B32" s="7">
-        <v>45412</v>
-      </c>
-      <c r="C32" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="E32" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F32" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F32" s="8" t="s">
+      <c r="L32" s="4"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" s="7">
+        <v>45412</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="L32" s="4"/>
-    </row>
-    <row r="33" spans="1:12">
-      <c r="A33" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B33" s="7">
-        <v>45412</v>
-      </c>
-      <c r="C33" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="E33" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="F33" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="F33" s="8" t="s">
+      <c r="L33" s="4"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" s="7">
+        <v>45412</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="L33" s="4"/>
-    </row>
-    <row r="34" spans="1:12">
-      <c r="A34" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B34" s="7">
-        <v>45412</v>
-      </c>
-      <c r="C34" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="E34" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F34" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="E34" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="F34" s="8" t="s">
+      <c r="L34" s="4"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" s="7">
+        <v>45412</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="L34" s="4"/>
-    </row>
-    <row r="35" spans="1:12">
-      <c r="A35" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B35" s="7">
-        <v>45412</v>
-      </c>
-      <c r="C35" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="E35" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F35" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="E35" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="F35" s="8" t="s">
+      <c r="L35" s="4"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36" s="7">
+        <v>45412</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="L35" s="4"/>
-    </row>
-    <row r="36" spans="1:12">
-      <c r="A36" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B36" s="7">
-        <v>45412</v>
-      </c>
-      <c r="C36" s="1" t="s">
+      <c r="D36" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="E36" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F36" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="E36" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="F36" s="8" t="s">
+      <c r="L36" s="4"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" s="7">
+        <v>45412</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="L36" s="4"/>
-    </row>
-    <row r="37" spans="1:12">
-      <c r="A37" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B37" s="7">
-        <v>45412</v>
-      </c>
-      <c r="C37" s="1" t="s">
+      <c r="D37" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="E37" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F37" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E37" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="F37" s="8" t="s">
+      <c r="L37" s="4"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38" s="7">
+        <v>45412</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="L37" s="4"/>
-    </row>
-    <row r="38" spans="1:12">
-      <c r="A38" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B38" s="7">
-        <v>45412</v>
-      </c>
-      <c r="C38" s="1" t="s">
+      <c r="D38" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="E38" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="F38" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="F38" s="8" t="s">
+      <c r="L38" s="4"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39" s="7">
+        <v>45412</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="L38" s="4"/>
-    </row>
-    <row r="39" spans="1:12">
-      <c r="A39" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B39" s="7">
-        <v>45412</v>
-      </c>
-      <c r="C39" s="1" t="s">
+      <c r="D39" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="E39" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F39" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="E39" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="F39" s="8" t="s">
+      <c r="L39" s="4"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40" s="7">
+        <v>45412</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="L39" s="4"/>
-    </row>
-    <row r="40" spans="1:12">
-      <c r="A40" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B40" s="7">
-        <v>45412</v>
-      </c>
-      <c r="C40" s="1" t="s">
+      <c r="D40" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="E40" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F40" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="E40" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="F40" s="8" t="s">
+      <c r="L40" s="4"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41" s="7">
+        <v>45412</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="L40" s="4"/>
-    </row>
-    <row r="41" spans="1:12">
-      <c r="A41" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B41" s="7">
-        <v>45412</v>
-      </c>
-      <c r="C41" s="1" t="s">
+      <c r="D41" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="E41" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F41" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="E41" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="F41" s="8" t="s">
+      <c r="L41" s="4"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B42" s="7">
+        <v>45412</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="L41" s="4"/>
-    </row>
-    <row r="42" spans="1:12">
-      <c r="A42" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B42" s="7">
-        <v>45412</v>
-      </c>
-      <c r="C42" s="1" t="s">
+      <c r="D42" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="E42" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F42" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="E42" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="F42" s="8" t="s">
+      <c r="L42" s="4"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B43" s="7">
+        <v>45412</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="L42" s="4"/>
-    </row>
-    <row r="43" spans="1:12">
-      <c r="A43" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B43" s="7">
-        <v>45412</v>
-      </c>
-      <c r="C43" s="1" t="s">
+      <c r="D43" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="E43" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F43" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="E43" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="F43" s="8" t="s">
+      <c r="L43" s="4"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B44" s="7">
+        <v>45412</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="L43" s="4"/>
-    </row>
-    <row r="44" spans="1:12">
-      <c r="A44" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B44" s="7">
-        <v>45412</v>
-      </c>
-      <c r="C44" s="1" t="s">
+      <c r="D44" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="E44" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="F44" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="F44" s="8" t="s">
-        <v>153</v>
-      </c>
       <c r="L44" s="4"/>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L45" s="4"/>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L46" s="4"/>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L47" s="4"/>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L48" s="4"/>
     </row>
-    <row r="49" spans="12:12">
+    <row r="49" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L49" s="4"/>
     </row>
-    <row r="50" spans="12:12">
+    <row r="50" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L50" s="4"/>
     </row>
-    <row r="51" spans="12:12">
+    <row r="51" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L51" s="4"/>
     </row>
-    <row r="52" spans="12:12">
+    <row r="52" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L52" s="4"/>
     </row>
   </sheetData>
@@ -2171,6 +2171,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005C6577D0C3AE724BBB504F46D5A19401" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="25845a2805ffec61273570ee8952a967">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="df76e320-99cb-4a11-b59f-8bf32867ab70" xmlns:ns3="c0789f30-979e-497b-8344-faefb3987540" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7888a8b67094cd90eeeebcd3ec37a641" ns2:_="" ns3:_="">
     <xsd:import namespace="df76e320-99cb-4a11-b59f-8bf32867ab70"/>
@@ -2425,15 +2434,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -2446,13 +2446,39 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02D16E2A-DA73-470A-B5AC-915BCB4FF3A0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F183788-9BB3-42E5-8B0B-0F9E57B2B84A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F183788-9BB3-42E5-8B0B-0F9E57B2B84A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02D16E2A-DA73-470A-B5AC-915BCB4FF3A0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="df76e320-99cb-4a11-b59f-8bf32867ab70"/>
+    <ds:schemaRef ds:uri="c0789f30-979e-497b-8344-faefb3987540"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{79824A30-D606-42AC-A3A0-A172A9194026}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{79824A30-D606-42AC-A3A0-A172A9194026}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c0789f30-979e-497b-8344-faefb3987540"/>
+    <ds:schemaRef ds:uri="df76e320-99cb-4a11-b59f-8bf32867ab70"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Master-QualitativeManagerRecord.xlsx
+++ b/Master-QualitativeManagerRecord.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fa1b30dd86628461/FILE Backup/Kev/PYTHON Projects/JNB-AttributionModel/dataIn/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="210" documentId="8_{E16861B0-FF9C-4F3A-A520-7789E53B6DC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2592283E-E99D-4238-84D1-22F98A3B89BF}"/>
+  <xr:revisionPtr revIDLastSave="220" documentId="8_{E16861B0-FF9C-4F3A-A520-7789E53B6DC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B42F6707-0CF4-4ADA-A85D-38AD7C645B9A}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E7C0D57B-1266-42E8-A8C2-F91239E041E7}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="153">
   <si>
     <t>Input By</t>
   </si>
@@ -469,9 +469,6 @@
   </si>
   <si>
     <t>The Fund is a total return strategy aiming to achieve low volatility, positive returns and capital preservation. The fund may have exposure to cash, debt, securities of any type (including government and corporate debt), equities and equity related securities plus commodities (including precious metals). Its inclusion enhances strategic diversification, aiming for consistent positive results in various market conditions.</t>
-  </si>
-  <si>
-    <t>28/05/24</t>
   </si>
   <si>
     <t xml:space="preserve">Founded in 1994, around for 30+ years by John Ruffer. Single strategy, true to label, i.e., contrarian with unconventional investment choices. 
@@ -728,7 +725,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -752,11 +749,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="11">
+    <dxf>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
     </dxf>
@@ -777,9 +781,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -824,17 +825,17 @@
   <autoFilter ref="A1:L52" xr:uid="{8E2E3B5B-BB45-477D-A808-D1330CD9137C}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{7161BF6F-388F-4614-BC3E-CCAFDABBB8FA}" name="Input By" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{06E07337-5B81-482F-9B87-BE700D0C7DF9}" name="Date" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{06E07337-5B81-482F-9B87-BE700D0C7DF9}" name="Date" dataDxfId="0"/>
     <tableColumn id="3" xr3:uid="{26A60288-9D58-4338-AC67-17C6F91E26B6}" name="Code"/>
     <tableColumn id="4" xr3:uid="{8EC73F92-67B8-4999-951B-496FFCA19DD1}" name="Name"/>
     <tableColumn id="5" xr3:uid="{5E91BA82-B097-4B8B-85D6-FD6A6EB85C4D}" name="Asset Class"/>
-    <tableColumn id="6" xr3:uid="{262F4D4C-5002-46E4-9278-ECA97B4667A7}" name="Description Overview" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{3CDDC264-814F-498B-9E9A-1F6DA35E34F1}" name="Parent Opinion" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{0915B4C2-E411-4236-A9D4-027009F6F5DA}" name="People Opinion" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{A4310D60-219D-45CF-928C-8803675AA4CD}" name="Process Opinion" dataDxfId="3"/>
-    <tableColumn id="11" xr3:uid="{9ABA8646-E812-4185-BCBE-239D6464A893}" name="Return Profile Opinion" dataDxfId="2"/>
-    <tableColumn id="10" xr3:uid="{0C070949-EFDF-4611-9A46-67125B4117BA}" name="Product Terms Opinion" dataDxfId="1"/>
-    <tableColumn id="12" xr3:uid="{2086B66B-62B8-4F9D-A1A9-DB7464EAD0A3}" name="Overall Opinion" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{262F4D4C-5002-46E4-9278-ECA97B4667A7}" name="Description Overview" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{3CDDC264-814F-498B-9E9A-1F6DA35E34F1}" name="Parent Opinion" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{0915B4C2-E411-4236-A9D4-027009F6F5DA}" name="People Opinion" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{A4310D60-219D-45CF-928C-8803675AA4CD}" name="Process Opinion" dataDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{9ABA8646-E812-4185-BCBE-239D6464A893}" name="Return Profile Opinion" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{0C070949-EFDF-4611-9A46-67125B4117BA}" name="Product Terms Opinion" dataDxfId="2"/>
+    <tableColumn id="12" xr3:uid="{2086B66B-62B8-4F9D-A1A9-DB7464EAD0A3}" name="Overall Opinion" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1160,16 +1161,16 @@
   <dimension ref="A1:L52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" style="7" customWidth="1"/>
     <col min="3" max="3" width="17.140625" customWidth="1"/>
     <col min="4" max="4" width="52.140625" customWidth="1"/>
     <col min="5" max="5" width="21.7109375" customWidth="1"/>
@@ -1183,8 +1184,8 @@
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>153</v>
+      <c r="B1" s="9" t="s">
+        <v>152</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1833,8 +1834,8 @@
       <c r="A31" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B31" s="7" t="s">
-        <v>104</v>
+      <c r="B31" s="7">
+        <v>45440</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>101</v>
@@ -1847,22 +1848,22 @@
       </c>
       <c r="F31" s="8"/>
       <c r="G31" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="H31" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="H31" s="4" t="s">
+      <c r="I31" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="I31" s="4" t="s">
+      <c r="J31" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="J31" s="4" t="s">
+      <c r="K31" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="K31" s="4" t="s">
+      <c r="L31" s="4" t="s">
         <v>109</v>
-      </c>
-      <c r="L31" s="4" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -1873,16 +1874,16 @@
         <v>45412</v>
       </c>
       <c r="C32" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>81</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L32" s="4"/>
     </row>
@@ -1894,16 +1895,16 @@
         <v>45412</v>
       </c>
       <c r="C33" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="E33" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="F33" s="8" t="s">
         <v>116</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>117</v>
       </c>
       <c r="L33" s="4"/>
     </row>
@@ -1915,16 +1916,16 @@
         <v>45412</v>
       </c>
       <c r="C34" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="E34" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F34" s="8" t="s">
         <v>119</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F34" s="8" t="s">
-        <v>120</v>
       </c>
       <c r="L34" s="4"/>
     </row>
@@ -1936,16 +1937,16 @@
         <v>45412</v>
       </c>
       <c r="C35" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="E35" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F35" s="8" t="s">
         <v>122</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F35" s="8" t="s">
-        <v>123</v>
       </c>
       <c r="L35" s="4"/>
     </row>
@@ -1957,16 +1958,16 @@
         <v>45412</v>
       </c>
       <c r="C36" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="E36" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F36" s="8" t="s">
         <v>125</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F36" s="8" t="s">
-        <v>126</v>
       </c>
       <c r="L36" s="4"/>
     </row>
@@ -1978,16 +1979,16 @@
         <v>45412</v>
       </c>
       <c r="C37" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="E37" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F37" s="8" t="s">
         <v>128</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F37" s="8" t="s">
-        <v>129</v>
       </c>
       <c r="L37" s="4"/>
     </row>
@@ -1999,16 +2000,16 @@
         <v>45412</v>
       </c>
       <c r="C38" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="E38" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="F38" s="8" t="s">
         <v>132</v>
-      </c>
-      <c r="F38" s="8" t="s">
-        <v>133</v>
       </c>
       <c r="L38" s="4"/>
     </row>
@@ -2020,16 +2021,16 @@
         <v>45412</v>
       </c>
       <c r="C39" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="E39" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F39" s="8" t="s">
         <v>135</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F39" s="8" t="s">
-        <v>136</v>
       </c>
       <c r="L39" s="4"/>
     </row>
@@ -2041,16 +2042,16 @@
         <v>45412</v>
       </c>
       <c r="C40" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="E40" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F40" s="8" t="s">
         <v>138</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F40" s="8" t="s">
-        <v>139</v>
       </c>
       <c r="L40" s="4"/>
     </row>
@@ -2062,16 +2063,16 @@
         <v>45412</v>
       </c>
       <c r="C41" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="E41" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F41" s="8" t="s">
         <v>141</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F41" s="8" t="s">
-        <v>142</v>
       </c>
       <c r="L41" s="4"/>
     </row>
@@ -2083,16 +2084,16 @@
         <v>45412</v>
       </c>
       <c r="C42" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="E42" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F42" s="8" t="s">
         <v>144</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F42" s="8" t="s">
-        <v>145</v>
       </c>
       <c r="L42" s="4"/>
     </row>
@@ -2104,16 +2105,16 @@
         <v>45412</v>
       </c>
       <c r="C43" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="E43" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F43" s="8" t="s">
         <v>147</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F43" s="8" t="s">
-        <v>148</v>
       </c>
       <c r="L43" s="4"/>
     </row>
@@ -2125,16 +2126,16 @@
         <v>45412</v>
       </c>
       <c r="C44" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="E44" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="F44" s="8" t="s">
         <v>151</v>
-      </c>
-      <c r="F44" s="8" t="s">
-        <v>152</v>
       </c>
       <c r="L44" s="4"/>
     </row>
@@ -2171,15 +2172,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005C6577D0C3AE724BBB504F46D5A19401" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="25845a2805ffec61273570ee8952a967">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="df76e320-99cb-4a11-b59f-8bf32867ab70" xmlns:ns3="c0789f30-979e-497b-8344-faefb3987540" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7888a8b67094cd90eeeebcd3ec37a641" ns2:_="" ns3:_="">
     <xsd:import namespace="df76e320-99cb-4a11-b59f-8bf32867ab70"/>
@@ -2434,7 +2426,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="c0789f30-979e-497b-8344-faefb3987540" xsi:nil="true"/>
@@ -2445,15 +2437,16 @@
 </p:properties>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F183788-9BB3-42E5-8B0B-0F9E57B2B84A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02D16E2A-DA73-470A-B5AC-915BCB4FF3A0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2472,7 +2465,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{79824A30-D606-42AC-A3A0-A172A9194026}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -2481,4 +2474,12 @@
     <ds:schemaRef ds:uri="df76e320-99cb-4a11-b59f-8bf32867ab70"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F183788-9BB3-42E5-8B0B-0F9E57B2B84A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>